--- a/natmiOut/OldD7/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Amelx</t>
   </si>
   <si>
     <t>Lamp2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.01444631847075</v>
+        <v>0.154272</v>
       </c>
       <c r="H2">
-        <v>1.01444631847075</v>
+        <v>0.462816</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.07666654518829698</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07666654518829699</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.4507250409437</v>
+        <v>51.278156</v>
       </c>
       <c r="N2">
-        <v>49.4507250409437</v>
+        <v>153.834468</v>
       </c>
       <c r="O2">
-        <v>0.1002954739001723</v>
+        <v>0.09840014096595742</v>
       </c>
       <c r="P2">
-        <v>0.1002954739001723</v>
+        <v>0.09840014096595742</v>
       </c>
       <c r="Q2">
-        <v>50.16510596349467</v>
+        <v>7.910783682432</v>
       </c>
       <c r="R2">
-        <v>50.16510596349467</v>
+        <v>71.19705314188801</v>
       </c>
       <c r="S2">
-        <v>0.1002954739001723</v>
+        <v>0.007543998853901368</v>
       </c>
       <c r="T2">
-        <v>0.1002954739001723</v>
+        <v>0.007543998853901369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.01444631847075</v>
+        <v>0.154272</v>
       </c>
       <c r="H3">
-        <v>1.01444631847075</v>
+        <v>0.462816</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.07666654518829698</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.07666654518829699</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>240.833979798716</v>
+        <v>241.00591</v>
       </c>
       <c r="N3">
-        <v>240.833979798716</v>
+        <v>723.01773</v>
       </c>
       <c r="O3">
-        <v>0.4884571078619677</v>
+        <v>0.4624779314924828</v>
       </c>
       <c r="P3">
-        <v>0.4884571078619677</v>
+        <v>0.4624779314924828</v>
       </c>
       <c r="Q3">
-        <v>244.3131441694664</v>
+        <v>37.18046374752</v>
       </c>
       <c r="R3">
-        <v>244.3131441694664</v>
+        <v>334.62417372768</v>
       </c>
       <c r="S3">
-        <v>0.4884571078619677</v>
+        <v>0.03545658523335855</v>
       </c>
       <c r="T3">
-        <v>0.4884571078619677</v>
+        <v>0.03545658523335855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.01444631847075</v>
+        <v>0.154272</v>
       </c>
       <c r="H4">
-        <v>1.01444631847075</v>
+        <v>0.462816</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.07666654518829698</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.07666654518829699</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>160.68135435455</v>
+        <v>182.8717853333333</v>
       </c>
       <c r="N4">
-        <v>160.68135435455</v>
+        <v>548.615356</v>
       </c>
       <c r="O4">
-        <v>0.3258923416910039</v>
+        <v>0.350921539680489</v>
       </c>
       <c r="P4">
-        <v>0.3258923416910039</v>
+        <v>0.350921539680489</v>
       </c>
       <c r="Q4">
-        <v>163.0026083718672</v>
+        <v>28.211996066944</v>
       </c>
       <c r="R4">
-        <v>163.0026083718672</v>
+        <v>253.907964602496</v>
       </c>
       <c r="S4">
-        <v>0.3258923416910039</v>
+        <v>0.02690394207946096</v>
       </c>
       <c r="T4">
-        <v>0.3258923416910039</v>
+        <v>0.02690394207946097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.154272</v>
+      </c>
+      <c r="H5">
+        <v>0.462816</v>
+      </c>
+      <c r="I5">
+        <v>0.07666654518829698</v>
+      </c>
+      <c r="J5">
+        <v>0.07666654518829699</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>45.96287366666667</v>
+      </c>
+      <c r="N5">
+        <v>137.888621</v>
+      </c>
+      <c r="O5">
+        <v>0.08820038786107075</v>
+      </c>
+      <c r="P5">
+        <v>0.08820038786107075</v>
+      </c>
+      <c r="Q5">
+        <v>7.090784446303999</v>
+      </c>
+      <c r="R5">
+        <v>63.817060016736</v>
+      </c>
+      <c r="S5">
+        <v>0.0067620190215761</v>
+      </c>
+      <c r="T5">
+        <v>0.006762019021576102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.069782333333333</v>
+      </c>
+      <c r="H6">
+        <v>3.209347</v>
+      </c>
+      <c r="I6">
+        <v>0.5316357835520495</v>
+      </c>
+      <c r="J6">
+        <v>0.5316357835520497</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>51.278156</v>
+      </c>
+      <c r="N6">
+        <v>153.834468</v>
+      </c>
+      <c r="O6">
+        <v>0.09840014096595742</v>
+      </c>
+      <c r="P6">
+        <v>0.09840014096595742</v>
+      </c>
+      <c r="Q6">
+        <v>54.85646537471067</v>
+      </c>
+      <c r="R6">
+        <v>493.7081883723961</v>
+      </c>
+      <c r="S6">
+        <v>0.0523130360440689</v>
+      </c>
+      <c r="T6">
+        <v>0.05231303604406892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.069782333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.209347</v>
+      </c>
+      <c r="I7">
+        <v>0.5316357835520495</v>
+      </c>
+      <c r="J7">
+        <v>0.5316357835520497</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>241.00591</v>
+      </c>
+      <c r="N7">
+        <v>723.01773</v>
+      </c>
+      <c r="O7">
+        <v>0.4624779314924828</v>
+      </c>
+      <c r="P7">
+        <v>0.4624779314924828</v>
+      </c>
+      <c r="Q7">
+        <v>257.8238647469233</v>
+      </c>
+      <c r="R7">
+        <v>2320.41478272231</v>
+      </c>
+      <c r="S7">
+        <v>0.2458698174845372</v>
+      </c>
+      <c r="T7">
+        <v>0.2458698174845373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.069782333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.209347</v>
+      </c>
+      <c r="I8">
+        <v>0.5316357835520495</v>
+      </c>
+      <c r="J8">
+        <v>0.5316357835520497</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>182.8717853333333</v>
+      </c>
+      <c r="N8">
+        <v>548.615356</v>
+      </c>
+      <c r="O8">
+        <v>0.350921539680489</v>
+      </c>
+      <c r="P8">
+        <v>0.350921539680489</v>
+      </c>
+      <c r="Q8">
+        <v>195.6330052147258</v>
+      </c>
+      <c r="R8">
+        <v>1760.697046932532</v>
+      </c>
+      <c r="S8">
+        <v>0.1865624477133284</v>
+      </c>
+      <c r="T8">
+        <v>0.1865624477133284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.069782333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.209347</v>
+      </c>
+      <c r="I9">
+        <v>0.5316357835520495</v>
+      </c>
+      <c r="J9">
+        <v>0.5316357835520497</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>45.96287366666667</v>
+      </c>
+      <c r="N9">
+        <v>137.888621</v>
+      </c>
+      <c r="O9">
+        <v>0.08820038786107075</v>
+      </c>
+      <c r="P9">
+        <v>0.08820038786107075</v>
+      </c>
+      <c r="Q9">
+        <v>49.17027023783189</v>
+      </c>
+      <c r="R9">
+        <v>442.532432140487</v>
+      </c>
+      <c r="S9">
+        <v>0.04689048231011503</v>
+      </c>
+      <c r="T9">
+        <v>0.04689048231011504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.7881923333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.364577</v>
+      </c>
+      <c r="I10">
+        <v>0.3916976712596534</v>
+      </c>
+      <c r="J10">
+        <v>0.3916976712596534</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>51.278156</v>
+      </c>
+      <c r="N10">
+        <v>153.834468</v>
+      </c>
+      <c r="O10">
+        <v>0.09840014096595742</v>
+      </c>
+      <c r="P10">
+        <v>0.09840014096595742</v>
+      </c>
+      <c r="Q10">
+        <v>40.41704942667067</v>
+      </c>
+      <c r="R10">
+        <v>363.7534448400361</v>
+      </c>
+      <c r="S10">
+        <v>0.03854310606798714</v>
+      </c>
+      <c r="T10">
+        <v>0.03854310606798714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.7881923333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.364577</v>
+      </c>
+      <c r="I11">
+        <v>0.3916976712596534</v>
+      </c>
+      <c r="J11">
+        <v>0.3916976712596534</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>241.00591</v>
+      </c>
+      <c r="N11">
+        <v>723.01773</v>
+      </c>
+      <c r="O11">
+        <v>0.4624779314924828</v>
+      </c>
+      <c r="P11">
+        <v>0.4624779314924828</v>
+      </c>
+      <c r="Q11">
+        <v>189.9590105500234</v>
+      </c>
+      <c r="R11">
+        <v>1709.63109495021</v>
+      </c>
+      <c r="S11">
+        <v>0.181151528774587</v>
+      </c>
+      <c r="T11">
+        <v>0.1811515287745871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.01444631847075</v>
-      </c>
-      <c r="H5">
-        <v>1.01444631847075</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>42.0843559238622</v>
-      </c>
-      <c r="N5">
-        <v>42.0843559238622</v>
-      </c>
-      <c r="O5">
-        <v>0.08535507654685609</v>
-      </c>
-      <c r="P5">
-        <v>0.08535507654685609</v>
-      </c>
-      <c r="Q5">
-        <v>42.6923199321747</v>
-      </c>
-      <c r="R5">
-        <v>42.6923199321747</v>
-      </c>
-      <c r="S5">
-        <v>0.08535507654685609</v>
-      </c>
-      <c r="T5">
-        <v>0.08535507654685609</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.7881923333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.364577</v>
+      </c>
+      <c r="I12">
+        <v>0.3916976712596534</v>
+      </c>
+      <c r="J12">
+        <v>0.3916976712596534</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>182.8717853333333</v>
+      </c>
+      <c r="N12">
+        <v>548.615356</v>
+      </c>
+      <c r="O12">
+        <v>0.350921539680489</v>
+      </c>
+      <c r="P12">
+        <v>0.350921539680489</v>
+      </c>
+      <c r="Q12">
+        <v>144.1381391827125</v>
+      </c>
+      <c r="R12">
+        <v>1297.243252644412</v>
+      </c>
+      <c r="S12">
+        <v>0.1374551498876996</v>
+      </c>
+      <c r="T12">
+        <v>0.1374551498876996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.7881923333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.364577</v>
+      </c>
+      <c r="I13">
+        <v>0.3916976712596534</v>
+      </c>
+      <c r="J13">
+        <v>0.3916976712596534</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>45.96287366666667</v>
+      </c>
+      <c r="N13">
+        <v>137.888621</v>
+      </c>
+      <c r="O13">
+        <v>0.08820038786107075</v>
+      </c>
+      <c r="P13">
+        <v>0.08820038786107075</v>
+      </c>
+      <c r="Q13">
+        <v>36.22758464203523</v>
+      </c>
+      <c r="R13">
+        <v>326.048261778317</v>
+      </c>
+      <c r="S13">
+        <v>0.03454788652937961</v>
+      </c>
+      <c r="T13">
+        <v>0.03454788652937962</v>
       </c>
     </row>
   </sheetData>
